--- a/xlsx/弗朗西斯·德雷克_intext.xlsx
+++ b/xlsx/弗朗西斯·德雷克_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>政策_政策_加州_弗朗西斯·德雷克</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E9%9A%AA%E5%AE%B6</t>
   </si>
   <si>
-    <t>探險家</t>
+    <t>探险家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E5%AE%B6</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%93%B2%E5%80%AB</t>
   </si>
   <si>
-    <t>麥哲倫</t>
+    <t>麦哲伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D</t>
   </si>
   <si>
-    <t>龍</t>
+    <t>龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%87%E9%83%A1</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%93%B2%E5%80%AB%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>麥哲倫海峽</t>
+    <t>麦哲伦海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%9C%9B%E8%A7%92</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>普利茅斯 (英國)</t>
+    <t>普利茅斯 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%BA%97%E8%8E%8E%E7%99%BD%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>伊麗莎白一世</t>
+    <t>伊丽莎白一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%86%9B%E4%B8%AD%E5%B0%86</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>西班牙艦隊</t>
+    <t>西班牙舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%A2%E7%96%BE</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
+    <t>巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E8%AC%A0</t>
   </si>
   <si>
-    <t>民謠</t>
+    <t>民谣</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Drake%27s_Drum</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%BE%B7%E7%91%9E%E5%85%8B</t>
